--- a/summaryTable.xlsx
+++ b/summaryTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlloyd/Documents/GitHub/drForestChange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A16E3-C389-7348-BE38-9DCB10C1BE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2263B2-BE9B-544E-8716-45DCCF4F2F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="29060" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="35360" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summaryTable" sheetId="1" r:id="rId1"/>
@@ -1326,12 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="52" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="52" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>357.76573503612298</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>260.42681568180802</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>205.87933323773399</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>118.90865434395501</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>87.578894050519907</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>76.015499869468897</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>42.9746057481779</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>22.774743257660099</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>18.732675705090301</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>12.2540702414999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>6.1294226369008298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>5.0285636780120404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>5.0554690610522597</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>4.6505330898924004</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>0.27046399364762902</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>0.212181023419483</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>8.4603267171891802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>6.2218391993010901E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>5.5502454443546102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>2.8990273362426801E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>1.48907868395996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>1.17858001072424E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>9.28749836194326E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>7.35317321281164E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>1.65005450744629E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>116.31362790476101</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>53.412482360776302</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>48.483998782880903</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>33.519550450420503</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>21.950130180988801</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>13.930187836783899</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>8.4076100586920202</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>7.6737459840387796</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>3.8258321514028402</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>2.5143509414018101</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>0.93630696058035501</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>0.36913213859274002</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>0.26456799231475198</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>0.25542914224802299</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>0.23056485334781901</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>0.20214317320738601</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>0.201710897829638</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>0.15702700230727701</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>0.109532666668704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>7.0536319362182201E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>2.5627800814819302E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>3.56300453001996E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>1.9956992073974601E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>1.6310388218790699E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>1.6780070983886701E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>1.4142250878188201E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>181.51736305863901</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>168.802995125753</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>85.060677315985401</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>66.126110223293395</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>54.012923156894402</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>42.201170840659799</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>35.587202528218697</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>28.790375408815301</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>20.798442603583499</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>7.3569862786197699</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>4.8397816810287697</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>4.1738330962626096</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>2.6523564058631099</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>0.70095422862387002</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>0.13246894780461799</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>8.0928000338293102E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>7.3183975013623906E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>4.5315371514892601E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>1.51785130596924E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>6.82425968383789E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>1.6138013671875E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>8.4738293457031202E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>2.1508125903799E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>2.9565711756089199E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>151.9037230916</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>117.984015939714</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>115.457440559958</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>93.091748428731293</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>51.055050028146098</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>52.975593182622802</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>52.025502139360597</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>37.825747011759098</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>33.474748398839601</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>30.134625680736601</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>28.380690916528401</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>26.455480436006098</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>19.4278037504316</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>21.5738949856663</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>20.1744722173204</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>20.031547108853498</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>17.505979469039001</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>13.4710610100268</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>15.589252326629699</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>12.328208992770699</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>13.605222665630301</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>9.3355048438873407</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>9.2951232942357507</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>9.2855866380614298</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>8.6313205081776196</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>5.8350027740723602</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>77</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>3.85384066655892</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>3.5433519588373699</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>2.5206847592367798</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>4.1571933204609799</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>3.7077631584274302</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>3.2823090880664201</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>3.3989718364833501</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>3.1831817043280499</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>2.5324586855942499</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>2.50273754659265</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>2.2874105508405398</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>1.70125228358373</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>1.45116634293683</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>82</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>1.4507027825127701</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>1.5574425814153501</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>1.3873279916241901</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>1.3809116725377399</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>1.2127640221209399</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>1.1194569703225199</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>86</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>0.97459459661397296</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>87</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>1.1322447233739199</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>1.1515195502440101</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>89</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>0.87729039103526096</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>0.828883161367997</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>0.88411783110099096</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>90</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>0.84944419604398702</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>91</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>0.67990728655977795</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>56</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>0.59556416034782</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>92</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>0.54847773005783695</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>93</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>0.46439574828979502</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>94</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>0.41921331424324099</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>95</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>0.321117902501726</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>0.30713433565863402</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>0.29206548236437502</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>97</v>
       </c>
@@ -7378,7 +7377,7 @@
         <v>0.25907317975750099</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>0.26632271082723502</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>0.215421968934048</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>100</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>9.6759922324668707E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>9.6092680780129697E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>5.98226269542452E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>5.5923778390794897E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>5.0114955805663997E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>3.0051430254892399E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>3.18461821065028E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>3.0678428626780802E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>57</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>2.9111972916355498E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>1.83690101369198E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>107</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>1.8488331940918E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>108</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>1.32376888946533E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>109</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>1.02469134973145E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>110</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>7.9053591208137104E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>111</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>6.5889618988037102E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>4.7904965894918997E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>3.9744610128604699E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>3.4712379316334399E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>7.9763704589843904E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -8346,7 +8345,7 @@
         <v>2.41074960693598E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>2.1908830084228499E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>117</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>1.6127783740234401E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>1.5606144538095499E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -8522,7 +8521,7 @@
         <v>8.4396093749999998E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>121</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>1.7683818237304699E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>122</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>1.24417122730928E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>287.14781429862802</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>75.605541612367304</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>95</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>47.352743135789702</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>102</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>12.3414740646206</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>68</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>14.1637704591096</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>44</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>13.5989918323671</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>9.3432253571411206</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>9.9270054775380601</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>46</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>7.6719727251999501</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>6.3998900329112196</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>114</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>6.7965420707117499</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>60</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>7.1683547603582101</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>74</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>6.5420700613329403</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>75</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>6.5147603718804703</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>25</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>5.5163410582349197</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>124</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>3.8376245163251399</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>3.0139705866240698</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>64</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>3.38791821766194</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>2.7042009239338798</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>82</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>2.9252236180579398</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>2.7800258518623502</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>29</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>2.2909430702865099</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>2.4650903051715201</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>109</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>2.2080419959769499</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>65</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>1.6577412191307599</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>1.71990419296536</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>1.52239270513047</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>70</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>1.4106543368457301</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>1.27867041594331</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>93</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>1.2761780131168801</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>125</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>0.84580701002917902</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>78</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>0.92382936005206195</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>55</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>0.89238994632601598</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>110</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>0.70891733466513096</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>80</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>0.65621273945922898</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>0.55201656897353002</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>0.536642957702261</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>0.45461277165663699</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>56</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>0.55438543318337097</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>98</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>0.49717677528304</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>66</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>0.43705548379505099</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>0.34903204726648701</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>108</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>0.28790852333802203</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>39</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>0.31298882192993099</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>0.29782714266557098</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>40</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>0.275419365453</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>0.23676477687787201</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>87</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>0.238994219914553</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>57</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>0.21900305623291</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>127</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>0.16837444843531299</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>0.15878716940718901</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>51</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>0.122271896272257</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>88</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>0.104007066204561</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>85</v>
       </c>
@@ -11030,7 +11029,7 @@
         <v>0.102463451545801</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>117</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>7.4670699146618405E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>30</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>5.7011150605918701E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>6.05089528425461E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>72</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>5.9263884803373502E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>77</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>2.28671531255672E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>69</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>4.6802248307451999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>4.32551883763308E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>4.2960647514863899E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>128</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>3.9754775018310498E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>96</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>3.8886002658038002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>115</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>3.0657680415958202E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>129</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>3.2777757261127499E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>119</v>
       </c>
@@ -11602,7 +11601,7 @@
         <v>2.88846721575928E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>3.0468732462878699E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>97</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>2.89755892663646E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>130</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>2.0711020757147099E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>131</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>1.7650257761505701E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>120</v>
       </c>
@@ -11822,7 +11821,7 @@
         <v>1.3241621983116E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>2.10240912386403E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>63</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>1.6796480053710899E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>111</v>
       </c>
@@ -11954,7 +11953,7 @@
         <v>1.68929211737061E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>86</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>1.43501028881836E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>90</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>1.4684599180247599E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>1.3137608860473601E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>132</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>1.08097528038761E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>94</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>1.16352700606881E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>133</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>8.0851161772916205E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>105</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>1.02605142348513E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>7.7079098492431599E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>83</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>8.8687244239717394E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>99</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>6.3334243360476002E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>71</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>5.8985720019531203E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>106</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>5.1676238045390999E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>-1.2632258659213201E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>113</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>3.7113251494715099E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>134</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>3.66845231567383E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>3.1496379565429701E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>58</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>2.81582773967429E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>103</v>
       </c>
@@ -12746,7 +12745,7 @@
         <v>1.2399094189453101E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>135</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>1.0412059482086801E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>136</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>6.7113629333496105E-4</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>137</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>3.3369035719209598E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>138</v>
       </c>
@@ -12922,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>101</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>1.03225762120864E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>139</v>
       </c>
@@ -15783,13 +15782,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N328" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Dry forest"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
